--- a/biology/Mycologie/Pézize_écorce_d'orange/Pézize_écorce_d'orange.xlsx
+++ b/biology/Mycologie/Pézize_écorce_d'orange/Pézize_écorce_d'orange.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9zize_%C3%A9corce_d%27orange</t>
+          <t>Pézize_écorce_d'orange</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caloscypha fulgens · Caloscyphe brillante
-Le Pézize écorce d'orange ou la Caloscyphe brillante[1] (Caloscypha fulgens) est une espèce de champignons du genre Caloscypha et de la famille des Caloscyphaceae.
+Le Pézize écorce d'orange ou la Caloscyphe brillante (Caloscypha fulgens) est une espèce de champignons du genre Caloscypha et de la famille des Caloscyphaceae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A9zize_%C3%A9corce_d%27orange</t>
+          <t>Pézize_écorce_d'orange</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Liste des formes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (5 août 2023)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (5 août 2023) :
 Caloscypha fulgens f. caesioalba Gaggian. &amp; Parrett., 1988
 Caloscypha fulgens f. fulgens</t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P%C3%A9zize_%C3%A9corce_d%27orange</t>
+          <t>Pézize_écorce_d'orange</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Caloscypha fulgens (Pers.) Boud., 1904[2].
-L'espèce a été initialement classée dans le genre Peziza sous le basionyme Peziza fulgens Pers., 1822[2].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Caloscyphe brillante[1].
-Caloscypha fulgens a pour synonymes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Caloscypha fulgens (Pers.) Boud., 1904.
+L'espèce a été initialement classée dans le genre Peziza sous le basionyme Peziza fulgens Pers., 1822.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Caloscyphe brillante.
+Caloscypha fulgens a pour synonymes :
 Aleuria fulgens (Pers.) Gillet, 1879
 Barlaea fulgens (Pers.) Rehm, 1894
 Caloscypha fulgens f. fulgens
